--- a/UFT One/Sales/Create New Order/Default.xlsx
+++ b/UFT One/Sales/Create New Order/Default.xlsx
@@ -182,9 +182,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -195,7 +193,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -537,10 +537,10 @@
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="2" t="s">
         <v>0</v>
       </c>
-      <c s="2" t="str">
+      <c s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(A2,"Order ", "")," completed", "")</f>
         <v>100</v>
       </c>
